--- a/PySedLog/Conversión SedLog.xlsx
+++ b/PySedLog/Conversión SedLog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -25,9 +25,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>Código</t>
-  </si>
-  <si>
     <t>En SedLog</t>
   </si>
   <si>
@@ -368,13 +365,16 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>Código en Planilla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,7 +438,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -480,7 +480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,10 +512,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -547,7 +546,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -723,873 +721,873 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="15.75">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" t="s">
         <v>54</v>
       </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
         <v>54</v>
       </c>
-      <c r="C29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="D30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
         <v>54</v>
       </c>
-      <c r="C31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
         <v>54</v>
       </c>
-      <c r="D32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="C33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" t="s">
         <v>54</v>
       </c>
-      <c r="D34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" t="s">
+    <row r="57" spans="2:4">
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" t="s">
+    <row r="58" spans="2:4">
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" t="s">
+    <row r="59" spans="2:4">
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" t="s">
+    <row r="60" spans="2:4">
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" t="s">
+    <row r="61" spans="2:4">
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" t="s">
+    <row r="62" spans="2:4">
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62" t="s">
+    <row r="63" spans="2:4">
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>77</v>
-      </c>
-      <c r="D63" t="s">
+    <row r="64" spans="2:4">
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>77</v>
-      </c>
-      <c r="D64" t="s">
+    <row r="65" spans="2:4">
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>77</v>
-      </c>
-      <c r="D65" t="s">
+    <row r="66" spans="2:4">
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" t="s">
+    <row r="67" spans="2:4">
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" t="s">
+    <row r="68" spans="2:4">
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>77</v>
-      </c>
-      <c r="D68" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4">
       <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" t="s">
         <v>78</v>
       </c>
-      <c r="D69" t="s">
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>78</v>
-      </c>
-      <c r="D70" t="s">
+    <row r="71" spans="2:4">
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D71" t="s">
+    <row r="72" spans="2:4">
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D72" t="s">
+    <row r="73" spans="2:4">
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73" t="s">
+    <row r="74" spans="2:4">
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" t="s">
+    <row r="75" spans="2:4">
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" t="s">
+    <row r="76" spans="2:4">
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>78</v>
-      </c>
-      <c r="D76" t="s">
+    <row r="77" spans="2:4">
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" t="s">
+    <row r="78" spans="2:4">
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>78</v>
-      </c>
-      <c r="D78" t="s">
+    <row r="79" spans="2:4">
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" t="s">
+    <row r="80" spans="2:4">
+      <c r="B80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" t="s">
+    <row r="81" spans="2:4">
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81" t="s">
+    <row r="82" spans="2:4">
+      <c r="B82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" t="s">
+    <row r="83" spans="2:4">
+      <c r="B83" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" t="s">
+    <row r="84" spans="2:4">
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>78</v>
-      </c>
-      <c r="D84" t="s">
+    <row r="85" spans="2:4">
+      <c r="B85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" t="s">
+    <row r="86" spans="2:4">
+      <c r="B86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" t="s">
+    <row r="87" spans="2:4">
+      <c r="B87" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>78</v>
-      </c>
-      <c r="D87" t="s">
+    <row r="88" spans="2:4">
+      <c r="B88" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88" t="s">
+    <row r="89" spans="2:4">
+      <c r="B89" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89" t="s">
+    <row r="90" spans="2:4">
+      <c r="B90" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>100</v>
       </c>
-      <c r="D90" t="s">
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>100</v>
-      </c>
-      <c r="D91" t="s">
+    <row r="92" spans="2:4">
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>100</v>
-      </c>
-      <c r="D92" t="s">
+    <row r="93" spans="2:4">
+      <c r="B93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>100</v>
-      </c>
-      <c r="D93" t="s">
+    <row r="94" spans="2:4">
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>100</v>
-      </c>
-      <c r="D94" t="s">
+    <row r="95" spans="2:4">
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>100</v>
-      </c>
-      <c r="D95" t="s">
+    <row r="96" spans="2:4">
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>100</v>
-      </c>
-      <c r="D96" t="s">
+    <row r="97" spans="2:4">
+      <c r="B97" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+      <c r="D97" t="s">
         <v>108</v>
       </c>
-      <c r="D97" t="s">
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
+        <v>107</v>
+      </c>
+      <c r="D98" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>108</v>
-      </c>
-      <c r="D98" t="s">
+    <row r="99" spans="2:4">
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D99" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>108</v>
-      </c>
-      <c r="D99" t="s">
+    <row r="100" spans="2:4">
+      <c r="B100" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>108</v>
-      </c>
-      <c r="D100" t="s">
+    <row r="101" spans="2:4">
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>108</v>
-      </c>
-      <c r="D101" t="s">
+    <row r="102" spans="2:4">
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>108</v>
-      </c>
-      <c r="D102" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
